--- a/data/trans_bre/P9_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_1_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 12,76</t>
+          <t>5,68; 12,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,38</t>
+          <t>8,39; 16,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 18,34</t>
+          <t>9,27; 18,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,67</t>
+          <t>9,86; 18,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,71; 81,87</t>
+          <t>30,05; 80,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,31; 72,44</t>
+          <t>31,2; 72,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,51; 87,66</t>
+          <t>37,54; 88,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 69,41</t>
+          <t>30,28; 70,02</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,54</t>
+          <t>2,55; 6,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,61</t>
+          <t>2,69; 6,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,0</t>
+          <t>3,9; 8,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,72</t>
+          <t>-0,37; 4,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,76; 132,85</t>
+          <t>38,24; 129,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,86; 102,85</t>
+          <t>35,88; 109,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,43; 123,19</t>
+          <t>48,0; 123,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 43,0</t>
+          <t>-1,63; 43,84</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,27</t>
+          <t>1,12; 7,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,47</t>
+          <t>-2,54; 5,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 8,14</t>
+          <t>1,17; 8,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,56</t>
+          <t>-1,3; 4,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,12; 261,48</t>
+          <t>18,28; 240,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 118,45</t>
+          <t>-32,56; 117,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,83; 205,03</t>
+          <t>14,9; 196,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 72,46</t>
+          <t>-13,86; 70,94</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,0</t>
+          <t>5,58; 8,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,64</t>
+          <t>7,01; 10,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,79</t>
+          <t>7,21; 10,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,9</t>
+          <t>3,83; 7,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,13; 109,02</t>
+          <t>57,56; 108,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,05; 94,7</t>
+          <t>54,93; 97,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,48; 112,01</t>
+          <t>64,63; 112,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 59,97</t>
+          <t>26,06; 60,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_1_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,71</t>
+          <t>5,85; 12,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 16,37</t>
+          <t>8,64; 16,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,27; 18,32</t>
+          <t>9,62; 18,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,05; 80,07</t>
+          <t>30,74; 80,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,2; 72,32</t>
+          <t>31,14; 71,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,54; 88,61</t>
+          <t>37,26; 90,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,41</t>
+          <t>2,77; 6,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,74</t>
+          <t>2,63; 6,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,04</t>
+          <t>4,19; 8,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,24; 129,8</t>
+          <t>40,67; 132,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,88; 109,94</t>
+          <t>32,32; 108,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,0; 123,54</t>
+          <t>51,33; 124,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,59</t>
+          <t>1,45; 8,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 5,14</t>
+          <t>-2,21; 5,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,03</t>
+          <t>1,2; 8,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,28; 240,31</t>
+          <t>20,23; 239,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 117,57</t>
+          <t>-25,51; 108,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 196,75</t>
+          <t>13,37; 200,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,91</t>
+          <t>5,68; 8,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 10,65</t>
+          <t>7,09; 10,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,97</t>
+          <t>7,18; 10,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,56; 108,24</t>
+          <t>57,25; 104,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,93; 97,01</t>
+          <t>54,73; 93,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,63; 112,37</t>
+          <t>62,89; 110,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
